--- a/氣象性能評估工具V2/data/obs/2016-06-02_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-02_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="198">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>24.7</t>
+  </si>
+  <si>
     <t>2016-06-02-00</t>
   </si>
   <si>
-    <t>24.7</t>
-  </si>
-  <si>
     <t>29.0</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>31.4</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-02-01</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>28.5</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>29.2</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-02-02</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>25.0</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>28.7</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-02-03</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>23.9</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>27.4</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-02-04</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>27.5</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>27.7</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-02-05</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>24.2</t>
   </si>
   <si>
@@ -286,12 +286,12 @@
     <t>27.0</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-02-06</t>
   </si>
   <si>
-    <t>22.8</t>
-  </si>
-  <si>
     <t>24.6</t>
   </si>
   <si>
@@ -313,12 +313,12 @@
     <t>30.0</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-02-07</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>24.3</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>30.6</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-02-08</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>24.5</t>
   </si>
   <si>
@@ -469,12 +469,12 @@
     <t>32.2</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-02-12</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>26.6</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>32.1</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-02-13</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>23.2</t>
   </si>
   <si>
@@ -502,12 +502,12 @@
     <t>9.5</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-02-14</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>26.8</t>
   </si>
   <si>
@@ -583,10 +583,10 @@
     <t>26.1</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-02-20</t>
-  </si>
-  <si>
-    <t>22.2</t>
   </si>
   <si>
     <t>5.6</t>
@@ -614,6 +614,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -643,8 +646,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,11 +1027,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1100,17 +1104,17 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -1177,11 +1181,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1254,11 +1258,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1331,11 +1335,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1408,11 +1412,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1485,11 +1489,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1562,11 +1566,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -1639,11 +1643,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -1716,17 +1720,17 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>123</v>
@@ -1793,7 +1797,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -1803,7 +1807,7 @@
         <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>133</v>
@@ -1870,7 +1874,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B13" t="s">
@@ -1880,7 +1884,7 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>141</v>
@@ -1947,17 +1951,17 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
         <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>133</v>
@@ -2024,11 +2028,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
         <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
@@ -2101,11 +2105,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
         <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>159</v>
@@ -2178,11 +2182,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
@@ -2221,7 +2225,7 @@
         <v>79</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
         <v>62</v>
@@ -2255,17 +2259,17 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>133</v>
@@ -2332,11 +2336,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>141</v>
@@ -2409,11 +2413,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -2486,11 +2490,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>123</v>
@@ -2529,7 +2533,7 @@
         <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s">
         <v>184</v>
@@ -2563,11 +2567,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
         <v>189</v>
-      </c>
-      <c r="B22" t="s">
-        <v>190</v>
       </c>
       <c r="C22" t="s">
         <v>187</v>
@@ -2640,11 +2644,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>135</v>
@@ -2717,11 +2721,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>133</v>
@@ -2794,11 +2798,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>135</v>
@@ -2837,7 +2841,7 @@
         <v>169</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P25" t="s">
         <v>196</v>
